--- a/Order 2459427/Order 2459427.xlsx
+++ b/Order 2459427/Order 2459427.xlsx
@@ -8,14 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrosdhespollari/Library/CloudStorage/GoogleDrive-peterdsp29@gmail.com/My Drive/My Cloud/Documents/Personal/Work/Side/iziPen/Order 2459427/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6C4626-D52F-4849-A40B-E17B4F0F2977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAE9288-2CD9-5342-A87F-DAA95B414CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{14236AE4-83E5-754B-AA27-76CBD9303A43}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="3" activeTab="9" xr2:uid="{14236AE4-83E5-754B-AA27-76CBD9303A43}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Άσκηση 1 (Α)" sheetId="1" r:id="rId1"/>
+    <sheet name="Άσκηση 1 (Β)" sheetId="2" r:id="rId2"/>
+    <sheet name="Άσκηση 1 (Γ)" sheetId="3" r:id="rId3"/>
+    <sheet name="Άσκηση 2 (Α)" sheetId="4" r:id="rId4"/>
+    <sheet name="Άσκηση 2 (B)" sheetId="5" r:id="rId5"/>
+    <sheet name="Άσκηση 3 (A)" sheetId="6" r:id="rId6"/>
+    <sheet name="Άσκηση 3 (B)" sheetId="8" r:id="rId7"/>
+    <sheet name="Άσκηση 3 (Γ)" sheetId="10" r:id="rId8"/>
+    <sheet name="Άσκηση 4 (Α)" sheetId="11" r:id="rId9"/>
+    <sheet name="Άσκηση 4 (B)" sheetId="18" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="OLE_LINK10" localSheetId="0">'Άσκηση 1 (Α)'!$A$1</definedName>
+    <definedName name="OLE_LINK12" localSheetId="0">'Άσκηση 1 (Α)'!$A$30</definedName>
+    <definedName name="OLE_LINK3" localSheetId="0">'Άσκηση 1 (Α)'!$A$4</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +48,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Q (ποσότητα ηλεκτρικού ρεύματος)</t>
+  </si>
+  <si>
+    <t>P (τύπος ζήτησης)</t>
+  </si>
+  <si>
+    <t>P (τύπος προμήθειας)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -65,8 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,6 +125,2864 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>𝑓(𝑥)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Άσκηση 3 (A)'!$A$1:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Άσκηση 3 (A)'!$B$1:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-739E-F841-AA95-57412ADF92C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1687575647"/>
+        <c:axId val="388310816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1687575647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388310816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="388310816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687575647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>Σημείο ισορροπίας σε </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>P = 6,8 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>και </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Q = 28,4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Άσκηση 4 (Α)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P (τύπος προμήθειας)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Άσκηση 4 (Α)'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Άσκηση 4 (Α)'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.666666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8243-DA49-A1C7-F8FD5AFE0301}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Άσκηση 4 (Α)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P (τύπος ζήτησης)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Άσκηση 4 (Α)'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Άσκηση 4 (Α)'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8243-DA49-A1C7-F8FD5AFE0301}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="386793712"/>
+        <c:axId val="386799440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="386793712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386799440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="386799440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386793712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F44C11-5A1B-4B35-260D-DCAC5CC01919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6604000" cy="8738200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9765DB-9FAF-7D4F-6EBD-29280F880F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8255000" cy="4880399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>821950</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77DAD24-ADB5-6F72-5A67-DFBCD81324DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4876800"/>
+          <a:ext cx="8251450" cy="7493000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0A88D9-A03F-397D-378F-2CD19E65E2BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5778500" cy="8024942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>1210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CB9DC5-B57D-B348-C060-B4FE908160B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7962900"/>
+          <a:ext cx="5778500" cy="8294310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>820982</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B548A5-DC28-FDA6-1BE1-2798F5128F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5773982" cy="6908800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A749C9A-3EBD-1628-16EE-38260963D9AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7416800" cy="7912100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51B49C6-C80C-D1DC-562E-2AAA012B915C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7429500" cy="10134600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D4E265-B3AE-4F8B-C43B-5228A382F4B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10160000"/>
+          <a:ext cx="7429500" cy="10147300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6A4AAB-EE22-E500-99F2-CDBFA2D50EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C85CA4-5E6C-DF3E-D129-6218578A9290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2451100"/>
+          <a:ext cx="7429500" cy="9946082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE21292-2F72-AFBD-3A2E-2B00230484F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7416800" cy="5270500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A22E9B-8311-7BA3-1471-9CE619C83B77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5283200"/>
+          <a:ext cx="7416800" cy="6692900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95209F0B-E8D2-6900-D4FF-173384CE0018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7416800" cy="4051300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8451CA70-3B89-A65D-C6B5-E434DCEA9151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4064000"/>
+          <a:ext cx="7416800" cy="4851400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30478DE0-C180-BF54-ECA3-88904B6F7417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC72EF-F9BE-4C15-E99C-2FAE04C1897F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5486400"/>
+          <a:ext cx="5245100" cy="5473700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68BFE03-2409-5CB9-2967-EFDC38C5D881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10972800"/>
+          <a:ext cx="5245100" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,10 +3284,386 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B5F80E-DE6D-1B4E-8485-9BF184D5F7F8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C51685-0294-A248-B04D-C56D3F5D70D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D519891-F44A-0D43-BA46-7FF0344951EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC4DE84-0619-B544-BDD1-A0175D6A71E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD35CE7-A693-D342-A073-AE733B957433}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F986F4-9FE2-3A43-BEF8-7DE26A17B232}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776470D2-D490-1E40-9C0F-2CAA7D44853F}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>A1^4 - 25*A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B11" si="0">A2^4 - 25*A2</f>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>6336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>9750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB94756-967A-E445-9DBF-86FC1EF48EDA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1CF0B1-2ECD-094B-A481-6FD0CB0E3744}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11FFFF3-5D34-6C41-8DBF-7FB727CADFAD}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <f>(A2 - 8) / 3</f>
+        <v>-2.6666666666666665</v>
+      </c>
+      <c r="C2">
+        <f>(42 - A2) / 2</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B10" si="0">(A3 - 8) / 3</f>
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="1">(42 - A3) / 2</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>